--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_17-21.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_17-21.xlsx
@@ -41,12 +41,15 @@
     <t>0:0</t>
   </si>
   <si>
+    <t>APIDONE SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>1:0</t>
+  </si>
+  <si>
     <t xml:space="preserve">BORGASONE TRIO  CREAM </t>
   </si>
   <si>
-    <t>1:0</t>
-  </si>
-  <si>
     <t>CETAL 250MG/5ML 60ML SUSP</t>
   </si>
   <si>
@@ -84,6 +87,9 @@
   </si>
   <si>
     <t>ECONET CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
   </si>
   <si>
     <t xml:space="preserve">EVAL CARE  GEL</t>
@@ -879,13 +885,13 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c t="s" r="H5" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="8"/>
       <c r="K5" s="8"/>
       <c r="L5" s="9">
-        <v>30.5</v>
+        <v>24</v>
       </c>
       <c r="M5" s="9"/>
       <c t="s" r="N5" s="7">
@@ -905,13 +911,13 @@
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c t="s" r="H6" s="8">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
       <c r="L6" s="9">
-        <v>31</v>
+        <v>30.5</v>
       </c>
       <c r="M6" s="9"/>
       <c t="s" r="N6" s="7">
@@ -923,7 +929,7 @@
         <v>4</v>
       </c>
       <c t="s" r="B7" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
@@ -931,13 +937,13 @@
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c t="s" r="H7" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
       <c r="L7" s="9">
-        <v>360</v>
+        <v>31</v>
       </c>
       <c r="M7" s="9"/>
       <c t="s" r="N7" s="7">
@@ -957,17 +963,17 @@
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c t="s" r="H8" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I8" s="8"/>
       <c r="J8" s="8"/>
       <c r="K8" s="8"/>
       <c r="L8" s="9">
-        <v>55</v>
+        <v>360</v>
       </c>
       <c r="M8" s="9"/>
       <c t="s" r="N8" s="7">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" ht="24.75" customHeight="1">
@@ -975,7 +981,7 @@
         <v>6</v>
       </c>
       <c t="s" r="B9" s="7">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
@@ -983,17 +989,17 @@
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c t="s" r="H9" s="8">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8"/>
       <c r="K9" s="8"/>
       <c r="L9" s="9">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="M9" s="9"/>
       <c t="s" r="N9" s="7">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" ht="25.5" customHeight="1">
@@ -1001,7 +1007,7 @@
         <v>7</v>
       </c>
       <c t="s" r="B10" s="7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
@@ -1009,17 +1015,17 @@
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c t="s" r="H10" s="8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="9">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M10" s="9"/>
       <c t="s" r="N10" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" ht="24.75" customHeight="1">
@@ -1027,7 +1033,7 @@
         <v>8</v>
       </c>
       <c t="s" r="B11" s="7">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
@@ -1035,13 +1041,13 @@
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c t="s" r="H11" s="8">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I11" s="8"/>
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="M11" s="9"/>
       <c t="s" r="N11" s="7">
@@ -1061,13 +1067,13 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c t="s" r="H12" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I12" s="8"/>
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M12" s="9"/>
       <c t="s" r="N12" s="7">
@@ -1087,13 +1093,13 @@
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c t="s" r="H13" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I13" s="8"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="9">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="M13" s="9"/>
       <c t="s" r="N13" s="7">
@@ -1113,13 +1119,13 @@
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c t="s" r="H14" s="8">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I14" s="8"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="9">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="M14" s="9"/>
       <c t="s" r="N14" s="7">
@@ -1139,7 +1145,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c t="s" r="H15" s="8">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
@@ -1149,7 +1155,7 @@
       </c>
       <c r="M15" s="9"/>
       <c t="s" r="N15" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" ht="24.75" customHeight="1">
@@ -1157,7 +1163,7 @@
         <v>13</v>
       </c>
       <c t="s" r="B16" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1165,13 +1171,13 @@
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c t="s" r="H16" s="8">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="9">
-        <v>24</v>
+        <v>130</v>
       </c>
       <c r="M16" s="9"/>
       <c t="s" r="N16" s="7">
@@ -1183,7 +1189,7 @@
         <v>14</v>
       </c>
       <c t="s" r="B17" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1191,17 +1197,17 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c t="s" r="H17" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I17" s="8"/>
       <c r="J17" s="8"/>
       <c r="K17" s="8"/>
       <c r="L17" s="9">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="M17" s="9"/>
       <c t="s" r="N17" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" ht="25.5" customHeight="1">
@@ -1209,7 +1215,7 @@
         <v>15</v>
       </c>
       <c t="s" r="B18" s="7">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1217,13 +1223,13 @@
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c t="s" r="H18" s="8">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="9">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="M18" s="9"/>
       <c t="s" r="N18" s="7">
@@ -1235,7 +1241,7 @@
         <v>16</v>
       </c>
       <c t="s" r="B19" s="7">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1243,17 +1249,17 @@
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c t="s" r="H19" s="8">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="I19" s="8"/>
       <c r="J19" s="8"/>
       <c r="K19" s="8"/>
       <c r="L19" s="9">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="M19" s="9"/>
       <c t="s" r="N19" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" ht="25.5" customHeight="1">
@@ -1261,7 +1267,7 @@
         <v>17</v>
       </c>
       <c t="s" r="B20" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
@@ -1269,13 +1275,13 @@
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
       <c t="s" r="H20" s="8">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="I20" s="8"/>
       <c r="J20" s="8"/>
       <c r="K20" s="8"/>
       <c r="L20" s="9">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="M20" s="9"/>
       <c t="s" r="N20" s="7">
@@ -1287,7 +1293,7 @@
         <v>18</v>
       </c>
       <c t="s" r="B21" s="7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1301,11 +1307,11 @@
       <c r="J21" s="8"/>
       <c r="K21" s="8"/>
       <c r="L21" s="9">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="M21" s="9"/>
       <c t="s" r="N21" s="7">
-        <v>11</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" ht="25.5" customHeight="1">
@@ -1327,7 +1333,7 @@
       <c r="J22" s="8"/>
       <c r="K22" s="8"/>
       <c r="L22" s="9">
-        <v>350</v>
+        <v>92</v>
       </c>
       <c r="M22" s="9"/>
       <c t="s" r="N22" s="7">
@@ -1347,13 +1353,13 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c t="s" r="H23" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I23" s="8"/>
       <c r="J23" s="8"/>
       <c r="K23" s="8"/>
       <c r="L23" s="9">
-        <v>36.5</v>
+        <v>38</v>
       </c>
       <c r="M23" s="9"/>
       <c t="s" r="N23" s="7">
@@ -1373,13 +1379,13 @@
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c t="s" r="H24" s="8">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="I24" s="8"/>
       <c r="J24" s="8"/>
       <c r="K24" s="8"/>
       <c r="L24" s="9">
-        <v>35</v>
+        <v>350</v>
       </c>
       <c r="M24" s="9"/>
       <c t="s" r="N24" s="7">
@@ -1391,7 +1397,7 @@
         <v>22</v>
       </c>
       <c t="s" r="B25" s="7">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
@@ -1405,11 +1411,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>46</v>
+        <v>36.5</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1417,7 +1423,7 @@
         <v>23</v>
       </c>
       <c t="s" r="B26" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
@@ -1425,17 +1431,17 @@
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
       <c t="s" r="H26" s="8">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I26" s="8"/>
       <c r="J26" s="8"/>
       <c r="K26" s="8"/>
       <c r="L26" s="9">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="M26" s="9"/>
       <c t="s" r="N26" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1443,7 +1449,7 @@
         <v>24</v>
       </c>
       <c t="s" r="B27" s="7">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
@@ -1451,17 +1457,17 @@
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
       <c t="s" r="H27" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I27" s="8"/>
       <c r="J27" s="8"/>
       <c r="K27" s="8"/>
       <c r="L27" s="9">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="M27" s="9"/>
       <c t="s" r="N27" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" ht="25.5" customHeight="1">
@@ -1469,7 +1475,7 @@
         <v>25</v>
       </c>
       <c t="s" r="B28" s="7">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
@@ -1477,13 +1483,13 @@
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
       <c t="s" r="H28" s="8">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" s="8"/>
       <c r="J28" s="8"/>
       <c r="K28" s="8"/>
       <c r="L28" s="9">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M28" s="9"/>
       <c t="s" r="N28" s="7">
@@ -1495,7 +1501,7 @@
         <v>26</v>
       </c>
       <c t="s" r="B29" s="7">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
@@ -1503,13 +1509,13 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c t="s" r="H29" s="8">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="I29" s="8"/>
       <c r="J29" s="8"/>
       <c r="K29" s="8"/>
       <c r="L29" s="9">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="M29" s="9"/>
       <c t="s" r="N29" s="7">
@@ -1521,7 +1527,7 @@
         <v>27</v>
       </c>
       <c t="s" r="B30" s="7">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
@@ -1529,17 +1535,17 @@
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
       <c t="s" r="H30" s="8">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="I30" s="8"/>
       <c r="J30" s="8"/>
       <c r="K30" s="8"/>
       <c r="L30" s="9">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="M30" s="9"/>
       <c t="s" r="N30" s="7">
-        <v>35</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" ht="24.75" customHeight="1">
@@ -1555,17 +1561,17 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c t="s" r="H31" s="8">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="I31" s="8"/>
       <c r="J31" s="8"/>
       <c r="K31" s="8"/>
       <c r="L31" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M31" s="9"/>
       <c t="s" r="N31" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -1581,17 +1587,17 @@
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
       <c t="s" r="H32" s="8">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="I32" s="8"/>
       <c r="J32" s="8"/>
       <c r="K32" s="8"/>
       <c r="L32" s="9">
-        <v>28.199999999999999</v>
+        <v>31</v>
       </c>
       <c r="M32" s="9"/>
       <c t="s" r="N32" s="7">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" ht="25.5" customHeight="1">
@@ -1599,7 +1605,7 @@
         <v>30</v>
       </c>
       <c t="s" r="B33" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
@@ -1607,7 +1613,7 @@
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
       <c t="s" r="H33" s="8">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="I33" s="8"/>
       <c r="J33" s="8"/>
@@ -1625,7 +1631,7 @@
         <v>31</v>
       </c>
       <c t="s" r="B34" s="7">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
@@ -1633,17 +1639,17 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c t="s" r="H34" s="8">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="I34" s="8"/>
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="9">
-        <v>59</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M34" s="9"/>
       <c t="s" r="N34" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="35" ht="25.5" customHeight="1">
@@ -1651,7 +1657,7 @@
         <v>32</v>
       </c>
       <c t="s" r="B35" s="7">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="7"/>
       <c r="D35" s="7"/>
@@ -1659,17 +1665,17 @@
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
       <c t="s" r="H35" s="8">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="I35" s="8"/>
       <c r="J35" s="8"/>
       <c r="K35" s="8"/>
       <c r="L35" s="9">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="M35" s="9"/>
       <c t="s" r="N35" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="36" ht="24.75" customHeight="1">
@@ -1685,17 +1691,17 @@
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
       <c t="s" r="H36" s="8">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I36" s="8"/>
       <c r="J36" s="8"/>
       <c r="K36" s="8"/>
       <c r="L36" s="9">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="M36" s="9"/>
       <c t="s" r="N36" s="7">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -1711,17 +1717,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>59</v>
+        <v>9</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1729,7 +1735,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1737,17 +1743,17 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" ht="24.75" customHeight="1">
@@ -1755,7 +1761,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -1763,17 +1769,17 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" ht="25.5" customHeight="1">
@@ -1781,7 +1787,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -1789,17 +1795,17 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
-        <v>11</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" ht="24.75" customHeight="1">
@@ -1807,7 +1813,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -1815,13 +1821,13 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
       <c r="K41" s="8"/>
       <c r="L41" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
@@ -1833,7 +1839,7 @@
         <v>39</v>
       </c>
       <c t="s" r="B42" s="7">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
@@ -1841,13 +1847,13 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
@@ -1859,7 +1865,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -1867,17 +1873,17 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>11.67</v>
+        <v>15</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44" ht="24.75" customHeight="1">
@@ -1885,7 +1891,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -1893,17 +1899,17 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" ht="25.5" customHeight="1">
@@ -1911,7 +1917,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -1925,11 +1931,11 @@
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>20</v>
+        <v>11.67</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" ht="24.75" customHeight="1">
@@ -1937,7 +1943,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -1945,17 +1951,17 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -1963,7 +1969,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -1971,17 +1977,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>133.65000000000001</v>
+        <v>20</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -1989,7 +1995,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -1997,13 +2003,13 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
@@ -2023,17 +2029,17 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c t="s" r="H49" s="8">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="I49" s="8"/>
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>25</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>11</v>
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2041,7 +2047,7 @@
         <v>47</v>
       </c>
       <c t="s" r="B50" s="7">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
@@ -2049,13 +2055,13 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>74</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
@@ -2067,7 +2073,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2075,13 +2081,13 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
@@ -2101,13 +2107,13 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
@@ -2127,51 +2133,103 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="54" ht="25.5" customHeight="1">
-      <c r="K54" s="10">
-        <v>2562.52</v>
-      </c>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-    </row>
-    <row r="55" ht="16.5" customHeight="1">
-      <c t="s" r="A55" s="11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" ht="24.75" customHeight="1">
+      <c r="A54" s="6">
+        <v>51</v>
+      </c>
+      <c t="s" r="B54" s="7">
         <v>84</v>
       </c>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c t="s" r="F55" s="12">
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c t="s" r="H54" s="8">
+        <v>35</v>
+      </c>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="9">
+        <v>20</v>
+      </c>
+      <c r="M54" s="9"/>
+      <c t="s" r="N54" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="55" ht="25.5" customHeight="1">
+      <c r="A55" s="6">
+        <v>52</v>
+      </c>
+      <c t="s" r="B55" s="7">
         <v>85</v>
       </c>
-      <c r="G55" s="12"/>
-      <c r="H55" s="13"/>
-      <c t="s" r="I55" s="14">
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+      <c t="s" r="H55" s="8">
+        <v>22</v>
+      </c>
+      <c r="I55" s="8"/>
+      <c r="J55" s="8"/>
+      <c r="K55" s="8"/>
+      <c r="L55" s="9">
+        <v>80</v>
+      </c>
+      <c r="M55" s="9"/>
+      <c t="s" r="N55" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" ht="25.5" customHeight="1">
+      <c r="K56" s="10">
+        <v>2612.52</v>
+      </c>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+    </row>
+    <row r="57" ht="16.5" customHeight="1">
+      <c t="s" r="A57" s="11">
         <v>86</v>
       </c>
-      <c r="J55" s="14"/>
-      <c r="K55" s="14"/>
-      <c r="L55" s="14"/>
-      <c r="M55" s="14"/>
-      <c r="N55" s="14"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c t="s" r="F57" s="12">
+        <v>87</v>
+      </c>
+      <c r="G57" s="12"/>
+      <c r="H57" s="13"/>
+      <c t="s" r="I57" s="14">
+        <v>88</v>
+      </c>
+      <c r="J57" s="14"/>
+      <c r="K57" s="14"/>
+      <c r="L57" s="14"/>
+      <c r="M57" s="14"/>
+      <c r="N57" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="161">
+  <mergeCells count="167">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -2329,10 +2387,16 @@
     <mergeCell ref="B53:G53"/>
     <mergeCell ref="H53:K53"/>
     <mergeCell ref="L53:M53"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="I55:N55"/>
+    <mergeCell ref="B54:G54"/>
+    <mergeCell ref="H54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="B55:G55"/>
+    <mergeCell ref="H55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="K56:N56"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="I57:N57"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
